--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_241.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_241.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_266</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.119815668202765</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['A', 'A', 'A/b7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[['D', 'D/5', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:36.173061', '0:00:41.861950')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:30.564195', '0:01:33.106780')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.94, 15.94)]</t>
+          <t>[('0:02:26.280000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(46.6, 49.04)]</t>
+          <t>[('0:00:21.280000', '0:00:49.280000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:52.240000', '0:01:54.880000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09807692307692308</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(108.54, 120.72)]</t>
+          <t>[('0:00:07.460000', '0:00:13.640000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'G:min7/A#'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8063909774436091</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
+          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(69.06, 72.5), (17.34, 24.4)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(14.565283, 18.936988), (13.079206, 17.500916)]</t>
+          <t>[('0:02:23.182222', '0:02:53.495873')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>[('0:02:13.919000', '0:02:26.159000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D7" t="inlineStr">
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[(36.66, 43.94)]</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9)]</t>
+          <t>[('0:00:01.440000', '0:00:06.840000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_220</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>jaah_49</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3661356628982528</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['D', 'D', 'D/7', 'D/6', 'D/5']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['Bb', 'Bb', 'Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[('0:00:00.325509', '0:00:04.348503')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:03:21.950000', '0:03:34.620000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[('0:00:07.560000', '0:00:16.360000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(10.56, 16.4)]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(96.2, 113.76)]</t>
+          <t>[('0:00:01.980000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5428571428571429</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[['D', 'G/5', 'D', 'G/5']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(40.96, 43.3)]</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:20.432000', '0:00:24.332000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(21.08, 23.68)]</t>
+          <t>[('0:00:01.980000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.78, 98.82)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.62, 107.38)]</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (26.2, 33.96)]</t>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (25.48, 32.8)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3), (0.56, 4.26)]</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(105.0, 108.84)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.86, 5.3)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(42.36, 50.36)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
